--- a/meta/17-13-1-1.xlsx
+++ b/meta/17-13-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edoronina\Desktop\МЕТА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="17.13.1.1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t xml:space="preserve">www.stat.kg </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 17. Укрепление средств осуществления и активизация работы в рамках Глобального партнерства в интересах устойчивого развития </t>
   </si>
   <si>
@@ -122,37 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Национальный статистический комитет Кыргызской Республики </t>
-  </si>
-  <si>
-    <r>
-      <t>a)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Исенкулова Э. К., (Управление национальных счетов)                         b) Исенкулова Э. К., (Управление национальных счетов)
-c) Нурбаева А.Т., (Отдел статистики цен)
-d) Нурбаева А.Т., (Отдел статистики цен)
-e) Абдукадирова М.А., (Отдел статистики финансов)
-f) Сулайманова Г.Н. (Отдел статистики внешней торговли) 
-g) Сулайманова Г.Н. (Отдел статистики внешней торговли)
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">a)      eisenkulova@stat.kg                                                                                                   b) eisenkulova@stat.kg 
@@ -308,6 +274,39 @@
       </rPr>
       <t xml:space="preserve">                                                                                      Метаданные на сайте ООН: https://unstats.un.org/sdgs/metadata/  </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>a)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Исенкулова Э. К., (Управление национальных счетов)                         b) Исенкулова Э. К., (Управление национальных счетов)
+c) Нурбаева А.Т., (Отдел статистики цен)
+d) Нурбаева А.Т., (Отдел статистики цен)
+e) Абдукадирова М.А., (Отдел статистики финансов)
+f) Сулайманова Г.Н. (Отдел статистики внешней торговли) 
+g) Сулайманова Г.Н. (Отдел статистики внешней торговли)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">www.stat.gov.kg </t>
   </si>
 </sst>
 </file>
@@ -741,7 +740,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -756,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.2">
@@ -764,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -772,15 +771,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -794,15 +793,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -818,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -848,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -856,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,7 +869,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -892,7 +891,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,7 +899,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,7 +921,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -930,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -938,7 +937,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,7 +945,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
